--- a/data-extra/electrification_compiled.xlsx
+++ b/data-extra/electrification_compiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783711AA-F044-40C7-8F49-5FA2B0CDB2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54847BD1-9406-4317-83C1-0EDC1AC27A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,18 +957,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -998,11 +998,11 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2025</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2">
-        <v>2025</v>
       </c>
       <c r="E2" s="1">
         <v>48.046894399999999</v>
@@ -1018,11 +1018,11 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2030</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2030</v>
       </c>
       <c r="E3" s="1">
         <v>49.762947600000004</v>
@@ -1038,11 +1038,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2035</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2035</v>
       </c>
       <c r="E4" s="1">
         <v>50.999367500000005</v>
@@ -1058,11 +1058,11 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2040</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5">
-        <v>2040</v>
       </c>
       <c r="E5" s="1">
         <v>51.939731700000003</v>
@@ -1078,11 +1078,11 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>2045</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6">
-        <v>2045</v>
       </c>
       <c r="E6" s="1">
         <v>53.013715299999994</v>
@@ -1098,11 +1098,11 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>2050</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7">
-        <v>2050</v>
       </c>
       <c r="E7" s="1">
         <v>54.584647799999999</v>
@@ -1118,11 +1118,11 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8">
-        <v>2025</v>
       </c>
       <c r="E8" s="1">
         <v>57.099999999999994</v>
@@ -1138,11 +1138,11 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>2030</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
       </c>
       <c r="E9" s="1">
         <v>60.4</v>
@@ -1158,11 +1158,11 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>2035</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2035</v>
       </c>
       <c r="E10" s="1">
         <v>61.6</v>
@@ -1178,11 +1178,11 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>2025</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11">
-        <v>2025</v>
       </c>
       <c r="E11" s="1">
         <v>47.116904399999996</v>
@@ -1198,11 +1198,11 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>2030</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
       </c>
       <c r="E12" s="1">
         <v>46.905076399999999</v>
@@ -1218,11 +1218,11 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>2035</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
-      </c>
-      <c r="D13">
-        <v>2035</v>
       </c>
       <c r="E13" s="1">
         <v>47.708303000000001</v>
@@ -1238,11 +1238,11 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="D14">
-        <v>2025</v>
       </c>
       <c r="E14" s="1">
         <v>49.691321299999998</v>
@@ -1258,11 +1258,11 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>2030</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
-      </c>
-      <c r="D15">
-        <v>2030</v>
       </c>
       <c r="E15" s="1">
         <v>50.768012200000001</v>
@@ -1278,11 +1278,11 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>2035</v>
+      </c>
+      <c r="D16" t="s">
         <v>16</v>
-      </c>
-      <c r="D16">
-        <v>2035</v>
       </c>
       <c r="E16" s="1">
         <v>51.422670599999996</v>
@@ -1298,11 +1298,11 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>2025</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
-      </c>
-      <c r="D17">
-        <v>2025</v>
       </c>
       <c r="E17" s="1">
         <v>48.27</v>
@@ -1318,11 +1318,11 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>2030</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
-      </c>
-      <c r="D18">
-        <v>2030</v>
       </c>
       <c r="E18" s="1">
         <v>51.43</v>
@@ -1338,11 +1338,11 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>2035</v>
+      </c>
+      <c r="D19" t="s">
         <v>16</v>
-      </c>
-      <c r="D19">
-        <v>2035</v>
       </c>
       <c r="E19" s="1">
         <v>55.110000000000007</v>
@@ -1358,11 +1358,11 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>2040</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
-      </c>
-      <c r="D20">
-        <v>2040</v>
       </c>
       <c r="E20" s="1">
         <v>58.36</v>
@@ -1378,11 +1378,11 @@
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>2045</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
-      </c>
-      <c r="D21">
-        <v>2045</v>
       </c>
       <c r="E21" s="1">
         <v>60.56</v>
@@ -1398,11 +1398,11 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>2050</v>
+      </c>
+      <c r="D22" t="s">
         <v>16</v>
-      </c>
-      <c r="D22">
-        <v>2050</v>
       </c>
       <c r="E22" s="1">
         <v>62.18</v>
@@ -1418,11 +1418,11 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="s">
         <v>16</v>
-      </c>
-      <c r="D23">
-        <v>2025</v>
       </c>
       <c r="E23">
         <v>58.851194972476698</v>
@@ -1438,11 +1438,11 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>2030</v>
+      </c>
+      <c r="D24" t="s">
         <v>16</v>
-      </c>
-      <c r="D24">
-        <v>2030</v>
       </c>
       <c r="E24">
         <v>57.8020548414923</v>
@@ -1458,11 +1458,11 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>2035</v>
+      </c>
+      <c r="D25" t="s">
         <v>16</v>
-      </c>
-      <c r="D25">
-        <v>2035</v>
       </c>
       <c r="E25">
         <v>57.835613750898894</v>
@@ -1478,11 +1478,11 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
-      </c>
-      <c r="D26">
-        <v>2025</v>
       </c>
       <c r="E26">
         <v>47.104304554563697</v>
@@ -1498,11 +1498,11 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>2030</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
-      </c>
-      <c r="D27">
-        <v>2030</v>
       </c>
       <c r="E27">
         <v>47.282460783094997</v>
@@ -1518,11 +1518,11 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>2035</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
-      </c>
-      <c r="D28">
-        <v>2035</v>
       </c>
       <c r="E28">
         <v>47.993824572943197</v>
@@ -1538,11 +1538,11 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>2025</v>
+      </c>
+      <c r="D29" t="s">
         <v>16</v>
-      </c>
-      <c r="D29">
-        <v>2025</v>
       </c>
       <c r="E29">
         <v>56.549459952111604</v>
@@ -1558,11 +1558,11 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>2030</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
-      </c>
-      <c r="D30">
-        <v>2030</v>
       </c>
       <c r="E30">
         <v>61.589862422955399</v>
@@ -1578,11 +1578,11 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>2035</v>
+      </c>
+      <c r="D31" t="s">
         <v>16</v>
-      </c>
-      <c r="D31">
-        <v>2035</v>
       </c>
       <c r="E31">
         <v>65.569632858343596</v>
@@ -1593,602 +1593,602 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>2025</v>
-      </c>
-      <c r="E32" s="1">
-        <v>18.050770399999998</v>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>57.858798735510995</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>2030</v>
-      </c>
-      <c r="E33" s="1">
-        <v>17.966978699999999</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>2030</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>59.236241493408706</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>2035</v>
-      </c>
-      <c r="E34" s="1">
-        <v>17.876559</v>
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>2035</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>59.652442275123093</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>2040</v>
-      </c>
-      <c r="E35" s="1">
-        <v>17.730787500000002</v>
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>47.100414413192496</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36">
-        <v>2045</v>
-      </c>
-      <c r="E36" s="1">
-        <v>17.590412999999998</v>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>2030</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>47.123234614584504</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>2050</v>
-      </c>
-      <c r="E37" s="1">
-        <v>17.443428000000001</v>
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2035</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>47.851882645231804</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>2025</v>
-      </c>
-      <c r="E38" s="1">
-        <v>15.6</v>
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>2025</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>54.659220426871698</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>2030</v>
-      </c>
-      <c r="E39" s="1">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2030</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>57.480898280003501</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <v>2035</v>
-      </c>
-      <c r="E40" s="1">
-        <v>17.7</v>
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>2035</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>60.947867022725497</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>2025</v>
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>2025</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>12.5987619</v>
+        <v>47.183553600000003</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2030</v>
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>2030</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
       </c>
       <c r="E42" s="1">
-        <v>12.5682779</v>
+        <v>47.845746699999999</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43">
-        <v>2035</v>
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>2035</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
       </c>
       <c r="E43" s="1">
-        <v>12.481102099999999</v>
+        <v>48.858466699999994</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>2025</v>
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>2040</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
       </c>
       <c r="E44" s="1">
-        <v>28.332350600000002</v>
+        <v>50.090670299999992</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>2030</v>
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2045</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
       </c>
       <c r="E45" s="1">
-        <v>29.932106000000005</v>
+        <v>51.358108700000003</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>2035</v>
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>2050</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
       </c>
       <c r="E46" s="1">
-        <v>33.290481200000002</v>
+        <v>52.845462099999999</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <v>2025</v>
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2025</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>17.309999999999999</v>
+        <v>55.400000000000006</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>2030</v>
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2030</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
       </c>
       <c r="E48" s="1">
-        <v>17.16</v>
+        <v>56.8</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>2035</v>
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2035</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
       </c>
       <c r="E49" s="1">
-        <v>17.03</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>2040</v>
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>2025</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
       </c>
       <c r="E50" s="1">
-        <v>17.02</v>
+        <v>47.177487200000002</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>2045</v>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>2030</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
       </c>
       <c r="E51" s="1">
-        <v>17.03</v>
+        <v>47.2241705</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>2050</v>
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>2035</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
       </c>
       <c r="E52" s="1">
-        <v>17</v>
+        <v>47.913248800000005</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53">
-        <v>2025</v>
-      </c>
-      <c r="E53">
-        <v>15.9426748544065</v>
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
+        <v>48.822630199999999</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54">
-        <v>2030</v>
-      </c>
-      <c r="E54">
-        <v>16.842113120414602</v>
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>2030</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1">
+        <v>49.027583800000002</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55">
-        <v>2035</v>
-      </c>
-      <c r="E55">
-        <v>17.8456890932754</v>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>2035</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1">
+        <v>49.544440200000004</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56">
-        <v>2025</v>
-      </c>
-      <c r="E56">
-        <v>14.9086836370806</v>
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>2025</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1">
+        <v>48.04</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>2030</v>
-      </c>
-      <c r="E57">
-        <v>15.702213294058001</v>
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>2030</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1">
+        <v>49.13</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58">
-        <v>2035</v>
-      </c>
-      <c r="E58">
-        <v>15.510541095064701</v>
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>2035</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1">
+        <v>50.41</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59">
-        <v>2025</v>
-      </c>
-      <c r="E59">
-        <v>14.1917482959417</v>
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2040</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1">
+        <v>51.790000000000006</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60">
-        <v>2030</v>
-      </c>
-      <c r="E60">
-        <v>14.2380122498313</v>
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>2045</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1">
+        <v>53.15</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61">
-        <v>2035</v>
-      </c>
-      <c r="E61">
-        <v>13.732083862709702</v>
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>2050</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1">
+        <v>54.64</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,17 +2198,17 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62">
-        <v>2025</v>
+      <c r="C62">
+        <v>2025</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
       </c>
       <c r="E62" s="1">
-        <v>21.0166945</v>
+        <v>18.050770399999998</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,17 +2218,17 @@
       <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63">
-        <v>2030</v>
+      <c r="C63">
+        <v>2030</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
       </c>
       <c r="E63" s="1">
-        <v>23.311381999999998</v>
+        <v>17.966978699999999</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,17 +2238,17 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64">
-        <v>2035</v>
+      <c r="C64">
+        <v>2035</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
       </c>
       <c r="E64" s="1">
-        <v>25.683108799999999</v>
+        <v>17.876559</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2258,17 +2258,17 @@
       <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65">
+      <c r="C65">
         <v>2040</v>
       </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
       <c r="E65" s="1">
-        <v>27.310415799999998</v>
+        <v>17.730787500000002</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,17 +2278,17 @@
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66">
+      <c r="C66">
         <v>2045</v>
       </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="1">
-        <v>28.135567099999996</v>
+        <v>17.590412999999998</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,17 +2298,17 @@
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67">
+      <c r="C67">
         <v>2050</v>
       </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
       <c r="E67" s="1">
-        <v>29.284086300000002</v>
+        <v>17.443428000000001</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,17 +2318,17 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
+      <c r="C68">
+        <v>2025</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
       </c>
       <c r="E68" s="1">
-        <v>22.6453545</v>
+        <v>15.6</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,17 +2338,17 @@
       <c r="B69" t="s">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69">
-        <v>2030</v>
+      <c r="C69">
+        <v>2030</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
       </c>
       <c r="E69" s="1">
-        <v>25.8247389</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,1534 +2358,1534 @@
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70">
-        <v>2035</v>
+      <c r="C70">
+        <v>2035</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
       </c>
       <c r="E70" s="1">
-        <v>26.4517147</v>
+        <v>17.7</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
+      <c r="C71">
+        <v>2025</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
       </c>
       <c r="E71" s="1">
-        <v>23.9396627</v>
+        <v>12.5987619</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72">
-        <v>2030</v>
+      <c r="C72">
+        <v>2030</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
       </c>
       <c r="E72" s="1">
-        <v>24.772237199999999</v>
+        <v>12.5682779</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73">
-        <v>2035</v>
+      <c r="C73">
+        <v>2035</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
       </c>
       <c r="E73" s="1">
-        <v>25.542756600000001</v>
+        <v>12.481102099999999</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74">
-        <v>2040</v>
+      <c r="C74">
+        <v>2025</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
       </c>
       <c r="E74" s="1">
-        <v>26.259327300000002</v>
+        <v>28.332350600000002</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75">
-        <v>2045</v>
+      <c r="C75">
+        <v>2030</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
       </c>
       <c r="E75" s="1">
-        <v>26.976088900000001</v>
+        <v>29.932106000000005</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76">
-        <v>2050</v>
+      <c r="C76">
+        <v>2035</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
       </c>
       <c r="E76" s="1">
-        <v>29.610699699999998</v>
+        <v>33.290481200000002</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
+      <c r="C77">
+        <v>2025</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
       </c>
       <c r="E77" s="1">
-        <v>26.318506800000002</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78">
-        <v>2030</v>
+      <c r="C78">
+        <v>2030</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
       </c>
       <c r="E78" s="1">
-        <v>23.1429051</v>
+        <v>17.16</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79">
-        <v>2035</v>
+      <c r="C79">
+        <v>2035</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
       </c>
       <c r="E79" s="1">
-        <v>25.095769299999997</v>
+        <v>17.03</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80">
-        <v>2025</v>
+      <c r="C80">
+        <v>2040</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
       </c>
       <c r="E80" s="1">
-        <v>23.244446499999999</v>
+        <v>17.02</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81">
-        <v>2030</v>
+      <c r="C81">
+        <v>2045</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
       </c>
       <c r="E81" s="1">
-        <v>25.612712399999999</v>
+        <v>17.03</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82">
-        <v>2035</v>
+      <c r="C82">
+        <v>2050</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
       </c>
       <c r="E82" s="1">
-        <v>28.581662699999999</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83">
-        <v>2025</v>
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>2025</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
       </c>
       <c r="E83" s="1">
-        <v>20.87</v>
+        <v>17.9396415</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84">
-        <v>2030</v>
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>2030</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
       </c>
       <c r="E84" s="1">
-        <v>23.9</v>
+        <v>17.792334100000001</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85">
-        <v>2035</v>
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>2035</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
       </c>
       <c r="E85" s="1">
-        <v>28.59</v>
+        <v>17.7499523</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="C86">
         <v>2040</v>
       </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
       <c r="E86" s="1">
-        <v>33.239999999999995</v>
+        <v>17.671817000000001</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="C87">
         <v>2045</v>
       </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
       <c r="E87" s="1">
-        <v>36.6</v>
+        <v>17.622518400000001</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="C88">
         <v>2050</v>
       </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
       <c r="E88" s="1">
-        <v>38.450000000000003</v>
+        <v>17.518716000000001</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89">
-        <v>2025</v>
-      </c>
-      <c r="E89">
-        <v>24.006922762567999</v>
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>2025</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>14.299999999999999</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90">
-        <v>2030</v>
-      </c>
-      <c r="E90">
-        <v>26.926743630791901</v>
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>2030</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1">
+        <v>14.7</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91">
-        <v>2035</v>
-      </c>
-      <c r="E91">
-        <v>30.2712303323658</v>
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>2035</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1">
+        <v>16.600000000000001</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92">
-        <v>2025</v>
-      </c>
-      <c r="E92">
-        <v>18.815963444859101</v>
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>2025</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1">
+        <v>12.619272200000001</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93">
-        <v>2030</v>
-      </c>
-      <c r="E93">
-        <v>20.426445072754902</v>
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>2030</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="1">
+        <v>12.5068488</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94">
-        <v>2035</v>
-      </c>
-      <c r="E94">
-        <v>22.254572606784599</v>
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>2035</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1">
+        <v>12.4191518</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95">
-        <v>2025</v>
-      </c>
-      <c r="E95">
-        <v>20.8850931218653</v>
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>2025</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1">
+        <v>27.682607399999998</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96">
-        <v>2030</v>
-      </c>
-      <c r="E96">
-        <v>22.878178681259602</v>
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>2030</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>28.6387942</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97">
-        <v>2035</v>
-      </c>
-      <c r="E97">
-        <v>24.4544001682649</v>
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>2035</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1">
+        <v>31.229538099999999</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98">
-        <v>2025</v>
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>2025</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
       </c>
       <c r="E98" s="1">
-        <v>1.1502633</v>
+        <v>17.32</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99">
-        <v>2030</v>
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>2030</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
       </c>
       <c r="E99" s="1">
-        <v>4.2992752000000003</v>
+        <v>17.169999999999998</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100">
-        <v>2035</v>
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>2035</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
       </c>
       <c r="E100" s="1">
-        <v>8.2930352999999997</v>
+        <v>17.05</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>2040</v>
       </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
       <c r="E101" s="1">
-        <v>11.1094408</v>
+        <v>17.05</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="C102">
         <v>2045</v>
       </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
       <c r="E102" s="1">
-        <v>12.116598</v>
+        <v>17.05</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="C103">
         <v>2050</v>
       </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
       <c r="E103" s="1">
-        <v>13.674947400000001</v>
+        <v>17.02</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
-      </c>
-      <c r="E104" s="1">
-        <v>1.4000000000000001</v>
+      <c r="C104">
+        <v>2025</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>15.9426748544065</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
-      <c r="C105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105">
-        <v>2030</v>
-      </c>
-      <c r="E105" s="1">
-        <v>4.3999999999999995</v>
+      <c r="C105">
+        <v>2030</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>16.842113120414602</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106">
-        <v>2035</v>
-      </c>
-      <c r="E106" s="1">
-        <v>4.9000000000000004</v>
+      <c r="C106">
+        <v>2035</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>17.8456890932754</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
-      <c r="C107" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
-      </c>
-      <c r="E107" s="1">
-        <v>0.44314549999999997</v>
+      <c r="C107">
+        <v>2025</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>14.9086836370806</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108">
-        <v>2030</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1.7463192999999999</v>
+      <c r="C108">
+        <v>2030</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>15.702213294058001</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109">
-        <v>2035</v>
-      </c>
-      <c r="E109" s="1">
-        <v>4.1249705999999993</v>
+      <c r="C109">
+        <v>2035</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>15.510541095064701</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
-      <c r="C110" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110">
-        <v>2025</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1.9134248999999999</v>
+      <c r="C110">
+        <v>2025</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>14.1917482959417</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
-      <c r="C111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111">
-        <v>2030</v>
-      </c>
-      <c r="E111" s="1">
-        <v>4.5794303000000003</v>
+      <c r="C111">
+        <v>2030</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>14.2380122498313</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
-      <c r="C112" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112">
-        <v>2035</v>
-      </c>
-      <c r="E112" s="1">
-        <v>7.6091548999999992</v>
+      <c r="C112">
+        <v>2035</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>13.732083862709702</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113">
-        <v>2025</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1.1900000000000002</v>
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>2025</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>15.782502938281</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114">
-        <v>2030</v>
-      </c>
-      <c r="E114" s="1">
-        <v>5.76</v>
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>2030</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>16.9636440356295</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115">
-        <v>2035</v>
-      </c>
-      <c r="E115" s="1">
-        <v>15.07</v>
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>2035</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>18.804869243515501</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116">
-        <v>2040</v>
-      </c>
-      <c r="E116" s="1">
-        <v>26.02</v>
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>2025</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>14.735450327688801</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117">
-        <v>2045</v>
-      </c>
-      <c r="E117" s="1">
-        <v>35.46</v>
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>2030</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>14.4733679543496</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118">
-        <v>2050</v>
-      </c>
-      <c r="E118" s="1">
-        <v>40.6</v>
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>2035</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>14.204164285430302</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119">
-        <v>2025</v>
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>2025</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
       </c>
       <c r="E119">
-        <v>1.6397128702007002</v>
+        <v>15.009672605601901</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120">
-        <v>2030</v>
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>2030</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>6.1968168575250901</v>
+        <v>14.707497843993799</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121">
-        <v>2035</v>
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>2035</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
       </c>
       <c r="E121">
-        <v>11.898339319697101</v>
+        <v>14.164395549465599</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122">
-        <v>2025</v>
-      </c>
-      <c r="E122">
-        <v>0.593203799687685</v>
+      <c r="C122">
+        <v>2025</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="1">
+        <v>21.0166945</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
-      <c r="C123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123">
-        <v>2030</v>
-      </c>
-      <c r="E123">
-        <v>3.2280334779336401</v>
+      <c r="C123">
+        <v>2030</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="1">
+        <v>23.311381999999998</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124">
-        <v>2035</v>
-      </c>
-      <c r="E124">
-        <v>6.9814059863475499</v>
+      <c r="C124">
+        <v>2035</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="1">
+        <v>25.683108799999999</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125">
-        <v>2025</v>
-      </c>
-      <c r="E125">
-        <v>0.47547577303677496</v>
+      <c r="C125">
+        <v>2040</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="1">
+        <v>27.310415799999998</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
-      <c r="C126" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126">
-        <v>2030</v>
-      </c>
-      <c r="E126">
-        <v>2.1277668495431401</v>
+      <c r="C126">
+        <v>2045</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="1">
+        <v>28.135567099999996</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
       </c>
-      <c r="C127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127">
-        <v>2035</v>
-      </c>
-      <c r="E127">
-        <v>4.7931002880245801</v>
+      <c r="C127">
+        <v>2050</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="1">
+        <v>29.284086300000002</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128">
-        <v>2025</v>
-      </c>
-      <c r="E128">
-        <v>57.858798735510995</v>
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="1">
+        <v>22.6453545</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129">
-        <v>2030</v>
-      </c>
-      <c r="E129">
-        <v>59.236241493408706</v>
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>2030</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="1">
+        <v>25.8247389</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130">
-        <v>2035</v>
-      </c>
-      <c r="E130">
-        <v>59.652442275123093</v>
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>2035</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="1">
+        <v>26.4517147</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131">
-        <v>2025</v>
-      </c>
-      <c r="E131">
-        <v>47.100414413192496</v>
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="1">
+        <v>23.9396627</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132">
-        <v>2030</v>
-      </c>
-      <c r="E132">
-        <v>47.123234614584504</v>
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>2030</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="1">
+        <v>24.772237199999999</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133">
-        <v>2035</v>
-      </c>
-      <c r="E133">
-        <v>47.851882645231804</v>
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>2035</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="1">
+        <v>25.542756600000001</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134">
-        <v>2025</v>
-      </c>
-      <c r="E134">
-        <v>54.659220426871698</v>
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>2040</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="1">
+        <v>26.259327300000002</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135">
-        <v>2030</v>
-      </c>
-      <c r="E135">
-        <v>57.480898280003501</v>
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>2045</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" s="1">
+        <v>26.976088900000001</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136">
-        <v>2035</v>
-      </c>
-      <c r="E136">
-        <v>60.947867022725497</v>
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>2050</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="1">
+        <v>29.610699699999998</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137">
-        <v>2025</v>
-      </c>
-      <c r="E137">
-        <v>15.782502938281</v>
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>2025</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="1">
+        <v>26.318506800000002</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138">
-        <v>2030</v>
-      </c>
-      <c r="E138">
-        <v>16.9636440356295</v>
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>2030</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="1">
+        <v>23.1429051</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139">
-        <v>2035</v>
-      </c>
-      <c r="E139">
-        <v>18.804869243515501</v>
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>2035</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="1">
+        <v>25.095769299999997</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140">
-        <v>2025</v>
-      </c>
-      <c r="E140">
-        <v>14.735450327688801</v>
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>2025</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="1">
+        <v>23.244446499999999</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141">
-        <v>2030</v>
-      </c>
-      <c r="E141">
-        <v>14.4733679543496</v>
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>2030</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="1">
+        <v>25.612712399999999</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142">
-        <v>2035</v>
-      </c>
-      <c r="E142">
-        <v>14.204164285430302</v>
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>2035</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="1">
+        <v>28.581662699999999</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143">
-        <v>2025</v>
-      </c>
-      <c r="E143">
-        <v>15.009672605601901</v>
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>2025</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="1">
+        <v>20.87</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144">
-        <v>2030</v>
-      </c>
-      <c r="E144">
-        <v>14.707497843993799</v>
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>2030</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="1">
+        <v>23.9</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145">
-        <v>2035</v>
-      </c>
-      <c r="E145">
-        <v>14.164395549465599</v>
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>2035</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="1">
+        <v>28.59</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146">
-        <v>2025</v>
-      </c>
-      <c r="E146">
-        <v>23.242350038498799</v>
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>2040</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" s="1">
+        <v>33.239999999999995</v>
       </c>
       <c r="F146" t="s">
         <v>23</v>
@@ -3893,19 +3893,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147">
-        <v>2030</v>
-      </c>
-      <c r="E147">
-        <v>26.125407065520601</v>
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>2045</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="1">
+        <v>36.6</v>
       </c>
       <c r="F147" t="s">
         <v>23</v>
@@ -3913,19 +3913,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148">
-        <v>2035</v>
-      </c>
-      <c r="E148">
-        <v>29.614029502083998</v>
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>2050</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="1">
+        <v>38.450000000000003</v>
       </c>
       <c r="F148" t="s">
         <v>23</v>
@@ -3933,19 +3933,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>2025</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
       </c>
       <c r="E149">
-        <v>18.735085005997799</v>
+        <v>24.006922762567999</v>
       </c>
       <c r="F149" t="s">
         <v>23</v>
@@ -3953,19 +3953,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>2030</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
       </c>
       <c r="E150">
-        <v>19.1390968204636</v>
+        <v>26.926743630791901</v>
       </c>
       <c r="F150" t="s">
         <v>23</v>
@@ -3973,19 +3973,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>2035</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
       </c>
       <c r="E151">
-        <v>19.913436741230601</v>
+        <v>30.2712303323658</v>
       </c>
       <c r="F151" t="s">
         <v>23</v>
@@ -3993,19 +3993,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>2025</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
       </c>
       <c r="E152">
-        <v>21.059084477502498</v>
+        <v>18.815963444859101</v>
       </c>
       <c r="F152" t="s">
         <v>23</v>
@@ -4013,19 +4013,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>2030</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
       </c>
       <c r="E153">
-        <v>22.147721417281499</v>
+        <v>20.426445072754902</v>
       </c>
       <c r="F153" t="s">
         <v>23</v>
@@ -4033,19 +4033,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>2035</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>23.351963158239201</v>
+        <v>22.254572606784599</v>
       </c>
       <c r="F154" t="s">
         <v>23</v>
@@ -4053,242 +4053,242 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>2025</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
       </c>
       <c r="E155">
-        <v>0.85791492315444495</v>
+        <v>20.8850931218653</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>2030</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
       </c>
       <c r="E156">
-        <v>2.9386655914196602</v>
+        <v>22.878178681259602</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>2035</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
       </c>
       <c r="E157">
-        <v>7.2434465819171807</v>
+        <v>24.4544001682649</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
-      <c r="C158" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158">
-        <v>2025</v>
+      <c r="C158">
+        <v>2025</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
       </c>
       <c r="E158">
-        <v>0.40338052418755699</v>
+        <v>23.242350038498799</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
-      <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159">
-        <v>2030</v>
+      <c r="C159">
+        <v>2030</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
       </c>
       <c r="E159">
-        <v>0.97144690869359895</v>
+        <v>26.125407065520601</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
-      <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160">
-        <v>2035</v>
+      <c r="C160">
+        <v>2035</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>1.9543905580098899</v>
+        <v>29.614029502083998</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
-      <c r="C161" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161">
-        <v>2025</v>
+      <c r="C161">
+        <v>2025</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
       </c>
       <c r="E161">
-        <v>0.36373661476624997</v>
+        <v>18.735085005997799</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
-      <c r="C162" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162">
-        <v>2030</v>
+      <c r="C162">
+        <v>2030</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
       </c>
       <c r="E162">
-        <v>1.90255704741305</v>
+        <v>19.1390968204636</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
-      <c r="C163" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163">
-        <v>2035</v>
+      <c r="C163">
+        <v>2035</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
       </c>
       <c r="E163">
-        <v>3.9855142481198902</v>
+        <v>19.913436741230601</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164">
-        <v>2025</v>
-      </c>
-      <c r="E164" s="1">
-        <v>47.183553600000003</v>
+      <c r="C164">
+        <v>2025</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164">
+        <v>21.059084477502498</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165">
-        <v>2030</v>
-      </c>
-      <c r="E165" s="1">
-        <v>47.845746699999999</v>
+      <c r="C165">
+        <v>2030</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165">
+        <v>22.147721417281499</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
-      <c r="C166" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166">
-        <v>2035</v>
-      </c>
-      <c r="E166" s="1">
-        <v>48.858466699999994</v>
+      <c r="C166">
+        <v>2035</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166">
+        <v>23.351963158239201</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,17 +4298,17 @@
       <c r="B167" t="s">
         <v>5</v>
       </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167">
-        <v>2040</v>
+      <c r="C167">
+        <v>2025</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
       </c>
       <c r="E167" s="1">
-        <v>50.090670299999992</v>
+        <v>20.679523100000001</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,17 +4318,17 @@
       <c r="B168" t="s">
         <v>5</v>
       </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168">
-        <v>2045</v>
+      <c r="C168">
+        <v>2030</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
       </c>
       <c r="E168" s="1">
-        <v>51.358108700000003</v>
+        <v>22.358711500000002</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4338,1277 +4338,1277 @@
       <c r="B169" t="s">
         <v>5</v>
       </c>
-      <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169">
-        <v>2050</v>
+      <c r="C169">
+        <v>2035</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
       </c>
       <c r="E169" s="1">
-        <v>52.845462099999999</v>
+        <v>24.458398899999999</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
-      <c r="C170" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170">
-        <v>2025</v>
+      <c r="C170">
+        <v>2040</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
       </c>
       <c r="E170" s="1">
-        <v>55.400000000000006</v>
+        <v>26.303399799999998</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
-      <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171">
-        <v>2030</v>
+      <c r="C171">
+        <v>2045</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
       </c>
       <c r="E171" s="1">
-        <v>56.8</v>
+        <v>27.684808700000001</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-      <c r="C172" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172">
-        <v>2035</v>
+      <c r="C172">
+        <v>2050</v>
+      </c>
+      <c r="D172" t="s">
+        <v>18</v>
       </c>
       <c r="E172" s="1">
-        <v>59</v>
+        <v>28.9402218</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
-      <c r="C173" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173">
-        <v>2025</v>
+      <c r="C173">
+        <v>2025</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
       </c>
       <c r="E173" s="1">
-        <v>47.177487200000002</v>
+        <v>21.452359400000002</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174">
-        <v>2030</v>
+      <c r="C174">
+        <v>2030</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
       </c>
       <c r="E174" s="1">
-        <v>47.2241705</v>
+        <v>22.8432061</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
-      <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175">
-        <v>2035</v>
+      <c r="C175">
+        <v>2035</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
       </c>
       <c r="E175" s="1">
-        <v>47.913248800000005</v>
+        <v>25.268320900000003</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176">
-        <v>2025</v>
+      <c r="C176">
+        <v>2025</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
       </c>
       <c r="E176" s="1">
-        <v>48.822630199999999</v>
+        <v>24.405857699999999</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
-      <c r="C177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177">
-        <v>2030</v>
+      <c r="C177">
+        <v>2030</v>
+      </c>
+      <c r="D177" t="s">
+        <v>18</v>
       </c>
       <c r="E177" s="1">
-        <v>49.027583800000002</v>
+        <v>25.428135699999999</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
-      <c r="C178" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178">
-        <v>2035</v>
+      <c r="C178">
+        <v>2035</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
       </c>
       <c r="E178" s="1">
-        <v>49.544440200000004</v>
+        <v>26.252983099999998</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
-      <c r="C179" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179">
-        <v>2025</v>
+      <c r="C179">
+        <v>2040</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
       </c>
       <c r="E179" s="1">
-        <v>48.04</v>
+        <v>26.683390699999997</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180">
-        <v>2030</v>
+      <c r="C180">
+        <v>2045</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
       </c>
       <c r="E180" s="1">
-        <v>49.13</v>
+        <v>27.254651499999998</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181">
-        <v>2035</v>
+      <c r="C181">
+        <v>2050</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
       </c>
       <c r="E181" s="1">
-        <v>50.41</v>
+        <v>28.719855900000002</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
-      <c r="C182" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182">
-        <v>2040</v>
+      <c r="C182">
+        <v>2025</v>
+      </c>
+      <c r="D182" t="s">
+        <v>18</v>
       </c>
       <c r="E182" s="1">
-        <v>51.790000000000006</v>
+        <v>22.782796699999999</v>
       </c>
       <c r="F182" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183">
-        <v>2045</v>
+      <c r="C183">
+        <v>2030</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
       </c>
       <c r="E183" s="1">
-        <v>53.15</v>
+        <v>23.637832799999998</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184">
-        <v>2050</v>
+      <c r="C184">
+        <v>2035</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
       </c>
       <c r="E184" s="1">
-        <v>54.64</v>
+        <v>25.036529600000001</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
-      <c r="C185" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185">
-        <v>2025</v>
+      <c r="C185">
+        <v>2025</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
       </c>
       <c r="E185" s="1">
-        <v>17.9396415</v>
+        <v>22.7553959</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
-      <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186">
-        <v>2030</v>
+      <c r="C186">
+        <v>2030</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
       </c>
       <c r="E186" s="1">
-        <v>17.792334100000001</v>
+        <v>24.3503358</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
-      <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187">
-        <v>2035</v>
+      <c r="C187">
+        <v>2035</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
       </c>
       <c r="E187" s="1">
-        <v>17.7499523</v>
+        <v>26.479305100000001</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
-      <c r="C188" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188">
-        <v>2040</v>
+      <c r="C188">
+        <v>2025</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
       </c>
       <c r="E188" s="1">
-        <v>17.671817000000001</v>
+        <v>20.77</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
-      <c r="C189" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189">
-        <v>2045</v>
+      <c r="C189">
+        <v>2030</v>
+      </c>
+      <c r="D189" t="s">
+        <v>18</v>
       </c>
       <c r="E189" s="1">
-        <v>17.622518400000001</v>
+        <v>22.74</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190">
-        <v>2050</v>
+      <c r="C190">
+        <v>2035</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
       </c>
       <c r="E190" s="1">
-        <v>17.518716000000001</v>
+        <v>25.580000000000002</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
-      <c r="C191" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191">
-        <v>2025</v>
+      <c r="C191">
+        <v>2040</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
       </c>
       <c r="E191" s="1">
-        <v>14.299999999999999</v>
+        <v>28.76</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192">
-        <v>2030</v>
+      <c r="C192">
+        <v>2045</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
       </c>
       <c r="E192" s="1">
-        <v>14.7</v>
+        <v>31.6</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193">
-        <v>2035</v>
+      <c r="C193">
+        <v>2050</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
       </c>
       <c r="E193" s="1">
-        <v>16.600000000000001</v>
+        <v>33.82</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>2025</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
       </c>
       <c r="E194" s="1">
-        <v>12.619272200000001</v>
+        <v>1.1502633</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>2030</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
       </c>
       <c r="E195" s="1">
-        <v>12.5068488</v>
+        <v>4.2992752000000003</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>2035</v>
+      </c>
+      <c r="D196" t="s">
+        <v>19</v>
       </c>
       <c r="E196" s="1">
-        <v>12.4191518</v>
+        <v>8.2930352999999997</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>2040</v>
+      </c>
+      <c r="D197" t="s">
+        <v>19</v>
       </c>
       <c r="E197" s="1">
-        <v>27.682607399999998</v>
+        <v>11.1094408</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>2045</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
       </c>
       <c r="E198" s="1">
-        <v>28.6387942</v>
+        <v>12.116598</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>2050</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
       </c>
       <c r="E199" s="1">
-        <v>31.229538099999999</v>
+        <v>13.674947400000001</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>2025</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
       </c>
       <c r="E200" s="1">
-        <v>17.32</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="F200" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>2030</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
       </c>
       <c r="E201" s="1">
-        <v>17.169999999999998</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>2035</v>
+      </c>
+      <c r="D202" t="s">
+        <v>19</v>
       </c>
       <c r="E202" s="1">
-        <v>17.05</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203">
-        <v>2040</v>
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>2025</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
       </c>
       <c r="E203" s="1">
-        <v>17.05</v>
+        <v>0.44314549999999997</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204">
-        <v>2045</v>
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>2030</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
       </c>
       <c r="E204" s="1">
-        <v>17.05</v>
+        <v>1.7463192999999999</v>
       </c>
       <c r="F204" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205">
-        <v>2050</v>
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>2035</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
       </c>
       <c r="E205" s="1">
-        <v>17.02</v>
+        <v>4.1249705999999993</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206" t="s">
-        <v>18</v>
-      </c>
-      <c r="D206">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>2025</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
       </c>
       <c r="E206" s="1">
-        <v>20.679523100000001</v>
+        <v>1.9134248999999999</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207" t="s">
-        <v>18</v>
-      </c>
-      <c r="D207">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>2030</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
       </c>
       <c r="E207" s="1">
-        <v>22.358711500000002</v>
+        <v>4.5794303000000003</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C208" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>2035</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
       </c>
       <c r="E208" s="1">
-        <v>24.458398899999999</v>
+        <v>7.6091548999999992</v>
       </c>
       <c r="F208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209" t="s">
-        <v>18</v>
-      </c>
-      <c r="D209">
-        <v>2040</v>
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>2025</v>
+      </c>
+      <c r="D209" t="s">
+        <v>19</v>
       </c>
       <c r="E209" s="1">
-        <v>26.303399799999998</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="F209" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C210" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210">
-        <v>2045</v>
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>2030</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
       </c>
       <c r="E210" s="1">
-        <v>27.684808700000001</v>
+        <v>5.76</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211">
-        <v>2050</v>
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>2035</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
       </c>
       <c r="E211" s="1">
-        <v>28.9402218</v>
+        <v>15.07</v>
       </c>
       <c r="F211" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" t="s">
-        <v>18</v>
-      </c>
-      <c r="D212">
-        <v>2025</v>
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>2040</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
       </c>
       <c r="E212" s="1">
-        <v>21.452359400000002</v>
+        <v>26.02</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" t="s">
-        <v>18</v>
-      </c>
-      <c r="D213">
-        <v>2030</v>
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>2045</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
       </c>
       <c r="E213" s="1">
-        <v>22.8432061</v>
+        <v>35.46</v>
       </c>
       <c r="F213" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" t="s">
-        <v>18</v>
-      </c>
-      <c r="D214">
-        <v>2035</v>
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>2050</v>
+      </c>
+      <c r="D214" t="s">
+        <v>19</v>
       </c>
       <c r="E214" s="1">
-        <v>25.268320900000003</v>
+        <v>40.6</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C215" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215">
-        <v>2025</v>
-      </c>
-      <c r="E215" s="1">
-        <v>24.405857699999999</v>
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>2025</v>
+      </c>
+      <c r="D215" t="s">
+        <v>19</v>
+      </c>
+      <c r="E215">
+        <v>1.6397128702007002</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216">
-        <v>2030</v>
-      </c>
-      <c r="E216" s="1">
-        <v>25.428135699999999</v>
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>2030</v>
+      </c>
+      <c r="D216" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216">
+        <v>6.1968168575250901</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" t="s">
-        <v>18</v>
-      </c>
-      <c r="D217">
-        <v>2035</v>
-      </c>
-      <c r="E217" s="1">
-        <v>26.252983099999998</v>
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>2035</v>
+      </c>
+      <c r="D217" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217">
+        <v>11.898339319697101</v>
       </c>
       <c r="F217" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
-      </c>
-      <c r="C218" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218">
-        <v>2040</v>
-      </c>
-      <c r="E218" s="1">
-        <v>26.683390699999997</v>
+        <v>4</v>
+      </c>
+      <c r="C218">
+        <v>2025</v>
+      </c>
+      <c r="D218" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218">
+        <v>0.593203799687685</v>
       </c>
       <c r="F218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
-      </c>
-      <c r="C219" t="s">
-        <v>18</v>
-      </c>
-      <c r="D219">
-        <v>2045</v>
-      </c>
-      <c r="E219" s="1">
-        <v>27.254651499999998</v>
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>2030</v>
+      </c>
+      <c r="D219" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219">
+        <v>3.2280334779336401</v>
       </c>
       <c r="F219" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
-      </c>
-      <c r="C220" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220">
-        <v>2050</v>
-      </c>
-      <c r="E220" s="1">
-        <v>28.719855900000002</v>
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>2035</v>
+      </c>
+      <c r="D220" t="s">
+        <v>19</v>
+      </c>
+      <c r="E220">
+        <v>6.9814059863475499</v>
       </c>
       <c r="F220" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" t="s">
-        <v>18</v>
-      </c>
-      <c r="D221">
-        <v>2025</v>
-      </c>
-      <c r="E221" s="1">
-        <v>22.782796699999999</v>
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>2025</v>
+      </c>
+      <c r="D221" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221">
+        <v>0.47547577303677496</v>
       </c>
       <c r="F221" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222">
-        <v>2030</v>
-      </c>
-      <c r="E222" s="1">
-        <v>23.637832799999998</v>
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>2030</v>
+      </c>
+      <c r="D222" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222">
+        <v>2.1277668495431401</v>
       </c>
       <c r="F222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
-      </c>
-      <c r="C223" t="s">
-        <v>18</v>
-      </c>
-      <c r="D223">
-        <v>2035</v>
-      </c>
-      <c r="E223" s="1">
-        <v>25.036529600000001</v>
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>2035</v>
+      </c>
+      <c r="D223" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223">
+        <v>4.7931002880245801</v>
       </c>
       <c r="F223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
-      <c r="C224" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224">
-        <v>2025</v>
-      </c>
-      <c r="E224" s="1">
-        <v>22.7553959</v>
+      <c r="C224">
+        <v>2025</v>
+      </c>
+      <c r="D224" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224">
+        <v>0.85791492315444495</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
-      <c r="C225" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225">
-        <v>2030</v>
-      </c>
-      <c r="E225" s="1">
-        <v>24.3503358</v>
+      <c r="C225">
+        <v>2030</v>
+      </c>
+      <c r="D225" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225">
+        <v>2.9386655914196602</v>
       </c>
       <c r="F225" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
-      <c r="C226" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226">
-        <v>2035</v>
-      </c>
-      <c r="E226" s="1">
-        <v>26.479305100000001</v>
+      <c r="C226">
+        <v>2035</v>
+      </c>
+      <c r="D226" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226">
+        <v>7.2434465819171807</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
-      <c r="C227" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227">
-        <v>2025</v>
-      </c>
-      <c r="E227" s="1">
-        <v>20.77</v>
+      <c r="C227">
+        <v>2025</v>
+      </c>
+      <c r="D227" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227">
+        <v>0.40338052418755699</v>
       </c>
       <c r="F227" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
-      <c r="C228" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228">
-        <v>2030</v>
-      </c>
-      <c r="E228" s="1">
-        <v>22.74</v>
+      <c r="C228">
+        <v>2030</v>
+      </c>
+      <c r="D228" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228">
+        <v>0.97144690869359895</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
       </c>
-      <c r="C229" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229">
-        <v>2035</v>
-      </c>
-      <c r="E229" s="1">
-        <v>25.580000000000002</v>
+      <c r="C229">
+        <v>2035</v>
+      </c>
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229">
+        <v>1.9543905580098899</v>
       </c>
       <c r="F229" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
-      <c r="C230" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230">
-        <v>2040</v>
-      </c>
-      <c r="E230" s="1">
-        <v>28.76</v>
+      <c r="C230">
+        <v>2025</v>
+      </c>
+      <c r="D230" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230">
+        <v>0.36373661476624997</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
-      <c r="C231" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231">
-        <v>2045</v>
-      </c>
-      <c r="E231" s="1">
-        <v>31.6</v>
+      <c r="C231">
+        <v>2030</v>
+      </c>
+      <c r="D231" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231">
+        <v>1.90255704741305</v>
       </c>
       <c r="F231" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
-      <c r="C232" t="s">
-        <v>18</v>
-      </c>
-      <c r="D232">
-        <v>2050</v>
-      </c>
-      <c r="E232" s="1">
-        <v>33.82</v>
+      <c r="C232">
+        <v>2035</v>
+      </c>
+      <c r="D232" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232">
+        <v>3.9855142481198902</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5618,11 +5618,11 @@
       <c r="B233" t="s">
         <v>5</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233">
+        <v>2025</v>
+      </c>
+      <c r="D233" t="s">
         <v>19</v>
-      </c>
-      <c r="D233">
-        <v>2025</v>
       </c>
       <c r="E233" s="1">
         <v>0.94839430000000002</v>
@@ -5638,11 +5638,11 @@
       <c r="B234" t="s">
         <v>5</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234">
+        <v>2030</v>
+      </c>
+      <c r="D234" t="s">
         <v>19</v>
-      </c>
-      <c r="D234">
-        <v>2030</v>
       </c>
       <c r="E234" s="1">
         <v>3.1970151000000002</v>
@@ -5658,11 +5658,11 @@
       <c r="B235" t="s">
         <v>5</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235">
+        <v>2035</v>
+      </c>
+      <c r="D235" t="s">
         <v>19</v>
-      </c>
-      <c r="D235">
-        <v>2035</v>
       </c>
       <c r="E235" s="1">
         <v>6.4558501000000001</v>
@@ -5678,11 +5678,11 @@
       <c r="B236" t="s">
         <v>5</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236">
+        <v>2040</v>
+      </c>
+      <c r="D236" t="s">
         <v>19</v>
-      </c>
-      <c r="D236">
-        <v>2040</v>
       </c>
       <c r="E236" s="1">
         <v>9.4513370000000005</v>
@@ -5698,11 +5698,11 @@
       <c r="B237" t="s">
         <v>5</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237">
+        <v>2045</v>
+      </c>
+      <c r="D237" t="s">
         <v>19</v>
-      </c>
-      <c r="D237">
-        <v>2045</v>
       </c>
       <c r="E237" s="1">
         <v>11.6498615</v>
@@ -5718,11 +5718,11 @@
       <c r="B238" t="s">
         <v>5</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238">
+        <v>2050</v>
+      </c>
+      <c r="D238" t="s">
         <v>19</v>
-      </c>
-      <c r="D238">
-        <v>2050</v>
       </c>
       <c r="E238" s="1">
         <v>13.599967099999999</v>
@@ -5738,11 +5738,11 @@
       <c r="B239" t="s">
         <v>5</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239">
+        <v>2025</v>
+      </c>
+      <c r="D239" t="s">
         <v>19</v>
-      </c>
-      <c r="D239">
-        <v>2025</v>
       </c>
       <c r="E239" s="1">
         <v>0.79</v>
@@ -5758,11 +5758,11 @@
       <c r="B240" t="s">
         <v>5</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240">
+        <v>2030</v>
+      </c>
+      <c r="D240" t="s">
         <v>19</v>
-      </c>
-      <c r="D240">
-        <v>2030</v>
       </c>
       <c r="E240" s="1">
         <v>2</v>
@@ -5778,11 +5778,11 @@
       <c r="B241" t="s">
         <v>5</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241">
+        <v>2035</v>
+      </c>
+      <c r="D241" t="s">
         <v>19</v>
-      </c>
-      <c r="D241">
-        <v>2035</v>
       </c>
       <c r="E241" s="1">
         <v>3.4000000000000004</v>
@@ -5798,11 +5798,11 @@
       <c r="B242" t="s">
         <v>5</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242">
+        <v>2025</v>
+      </c>
+      <c r="D242" t="s">
         <v>19</v>
-      </c>
-      <c r="D242">
-        <v>2025</v>
       </c>
       <c r="E242" s="1">
         <v>0.42957120000000004</v>
@@ -5818,11 +5818,11 @@
       <c r="B243" t="s">
         <v>5</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243">
+        <v>2030</v>
+      </c>
+      <c r="D243" t="s">
         <v>19</v>
-      </c>
-      <c r="D243">
-        <v>2030</v>
       </c>
       <c r="E243" s="1">
         <v>1.1769236999999999</v>
@@ -5838,11 +5838,11 @@
       <c r="B244" t="s">
         <v>5</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244">
+        <v>2035</v>
+      </c>
+      <c r="D244" t="s">
         <v>19</v>
-      </c>
-      <c r="D244">
-        <v>2035</v>
       </c>
       <c r="E244" s="1">
         <v>2.4171330000000002</v>
@@ -5858,11 +5858,11 @@
       <c r="B245" t="s">
         <v>5</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245">
+        <v>2025</v>
+      </c>
+      <c r="D245" t="s">
         <v>19</v>
-      </c>
-      <c r="D245">
-        <v>2025</v>
       </c>
       <c r="E245" s="1">
         <v>1.6535053000000002</v>
@@ -5878,11 +5878,11 @@
       <c r="B246" t="s">
         <v>5</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246">
+        <v>2030</v>
+      </c>
+      <c r="D246" t="s">
         <v>19</v>
-      </c>
-      <c r="D246">
-        <v>2030</v>
       </c>
       <c r="E246" s="1">
         <v>3.6176491999999998</v>
@@ -5898,11 +5898,11 @@
       <c r="B247" t="s">
         <v>5</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247">
+        <v>2035</v>
+      </c>
+      <c r="D247" t="s">
         <v>19</v>
-      </c>
-      <c r="D247">
-        <v>2035</v>
       </c>
       <c r="E247" s="1">
         <v>6.1805819999999994</v>
@@ -5918,11 +5918,11 @@
       <c r="B248" t="s">
         <v>5</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248">
+        <v>2025</v>
+      </c>
+      <c r="D248" t="s">
         <v>19</v>
-      </c>
-      <c r="D248">
-        <v>2025</v>
       </c>
       <c r="E248" s="1">
         <v>1.0900000000000001</v>
@@ -5938,11 +5938,11 @@
       <c r="B249" t="s">
         <v>5</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249">
+        <v>2030</v>
+      </c>
+      <c r="D249" t="s">
         <v>19</v>
-      </c>
-      <c r="D249">
-        <v>2030</v>
       </c>
       <c r="E249" s="1">
         <v>4.1399999999999997</v>
@@ -5958,11 +5958,11 @@
       <c r="B250" t="s">
         <v>5</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250">
+        <v>2035</v>
+      </c>
+      <c r="D250" t="s">
         <v>19</v>
-      </c>
-      <c r="D250">
-        <v>2035</v>
       </c>
       <c r="E250" s="1">
         <v>9.6100000000000012</v>
@@ -5978,11 +5978,11 @@
       <c r="B251" t="s">
         <v>5</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251">
+        <v>2040</v>
+      </c>
+      <c r="D251" t="s">
         <v>19</v>
-      </c>
-      <c r="D251">
-        <v>2040</v>
       </c>
       <c r="E251" s="1">
         <v>16.71</v>
@@ -5998,11 +5998,11 @@
       <c r="B252" t="s">
         <v>5</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252">
+        <v>2045</v>
+      </c>
+      <c r="D252" t="s">
         <v>19</v>
-      </c>
-      <c r="D252">
-        <v>2045</v>
       </c>
       <c r="E252" s="1">
         <v>23.95</v>
@@ -6018,11 +6018,11 @@
       <c r="B253" t="s">
         <v>5</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253">
+        <v>2050</v>
+      </c>
+      <c r="D253" t="s">
         <v>19</v>
-      </c>
-      <c r="D253">
-        <v>2050</v>
       </c>
       <c r="E253" s="1">
         <v>29.74</v>
@@ -6034,7 +6034,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F253">
-      <sortCondition ref="B1"/>
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
